--- a/media/BAJAJ-PL/Billing/FEB 22/BAJAJ-PL Billing.xlsx
+++ b/media/BAJAJ-PL/Billing/FEB 22/BAJAJ-PL Billing.xlsx
@@ -5713,15 +5713,15 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RUKHSAR KHAN</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U55" t="n">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>LESS THAN DEMAND</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -5738,7 +5738,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>885</v>
       </c>
     </row>
     <row r="56">
@@ -6673,15 +6673,15 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RUKHSAR KHAN</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U65" t="n">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>LESS THAN DEMAND</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -6698,7 +6698,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66">

--- a/media/BAJAJ-PL/Billing/FEB 22/BAJAJ-PL Billing.xlsx
+++ b/media/BAJAJ-PL/Billing/FEB 22/BAJAJ-PL Billing.xlsx
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>1125</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="4">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>41279</v>
+        <v>241279</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>MORE THAN DEMAND</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>6191.85</v>
+        <v>6391.2</v>
       </c>
     </row>
     <row r="9">
@@ -2929,15 +2929,15 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NEELU MALIK</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>27400</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U26" t="n">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>LESS THAN DEMAND</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="27">
@@ -10897,15 +10897,15 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NEELU MALIK</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U109" t="n">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>MORE THAN DEMAND</t>
         </is>
       </c>
       <c r="W109" t="inlineStr">
@@ -10922,7 +10922,7 @@
         </is>
       </c>
       <c r="X109" t="n">
-        <v>0</v>
+        <v>2672.4</v>
       </c>
     </row>
     <row r="110">
@@ -18001,7 +18001,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>4700</v>
+        <v>9350</v>
       </c>
       <c r="T183" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         </is>
       </c>
       <c r="X183" t="n">
-        <v>705</v>
+        <v>1402.5</v>
       </c>
     </row>
     <row r="184">
@@ -21645,15 +21645,15 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RUKHSAR KHAN</t>
         </is>
       </c>
       <c r="S221" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="T221" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U221" t="n">
@@ -21661,7 +21661,7 @@
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>LESS THAN DEMAND</t>
         </is>
       </c>
       <c r="W221" t="inlineStr">
@@ -21670,7 +21670,7 @@
         </is>
       </c>
       <c r="X221" t="n">
-        <v>0</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="222">
@@ -37677,15 +37677,15 @@
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RUKHSAR KHAN</t>
         </is>
       </c>
       <c r="S388" t="n">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="T388" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U388" t="n">
@@ -37693,7 +37693,7 @@
       </c>
       <c r="V388" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>MORE THAN DEMAND</t>
         </is>
       </c>
       <c r="W388" t="inlineStr">
@@ -37702,7 +37702,7 @@
         </is>
       </c>
       <c r="X388" t="n">
-        <v>0</v>
+        <v>3405.78</v>
       </c>
     </row>
     <row r="389">
@@ -46609,7 +46609,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>6000</v>
+        <v>9661</v>
       </c>
       <c r="T481" t="inlineStr">
         <is>
@@ -46630,7 +46630,7 @@
         </is>
       </c>
       <c r="X481" t="n">
-        <v>900</v>
+        <v>1449.15</v>
       </c>
     </row>
     <row r="482">
